--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34758.2337122366</v>
+        <v>6875938.790973583</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34758.2337122366</v>
+        <v>6875938.790973583</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16011.21266444598</v>
+        <v>966878.3676437645</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16011.21266444598</v>
+        <v>966878.3676437645</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114120458.153666</v>
+        <v>46801547.64349674</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11217.08021613183</v>
+        <v>1267602.449269551</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20294.02575260193</v>
+        <v>2180650.803510682</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29370.97128907202</v>
+        <v>3093699.157751814</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38819.14995216909</v>
+        <v>3964691.011383479</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48404.47993335847</v>
+        <v>4847362.58300723</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57679.51216104559</v>
+        <v>5753939.125940916</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66910.09485743518</v>
+        <v>6653934.391244356</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76140.67755382479</v>
+        <v>7553929.656547795</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85523.09125753847</v>
+        <v>8436284.515465951</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94931.06109680439</v>
+        <v>9323549.741911976</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104338.150014219</v>
+        <v>10210814.96835767</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113746.1198534825</v>
+        <v>11098080.1948034</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123153.6492318216</v>
+        <v>11985345.42124913</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132561.1786101628</v>
+        <v>12872610.64769447</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141968.2675275804</v>
+        <v>13759875.87413972</v>
       </c>
     </row>
   </sheetData>
